--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_2_backlog_actividades_horas.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_2_backlog_actividades_horas.xlsx
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -232,6 +232,11 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -274,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -307,6 +312,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -560,7 +568,7 @@
       <c r="B4" s="6"/>
       <c r="C4" s="7">
         <f>SUM(D7:D39)</f>
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="27.0" customHeight="1">
@@ -592,8 +600,8 @@
       <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13">
-        <v>3.0</v>
+      <c r="D7" s="16">
+        <v>4.0</v>
       </c>
     </row>
     <row r="8" ht="27.0" customHeight="1">
@@ -606,7 +614,7 @@
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="16">
         <v>2.0</v>
       </c>
     </row>
@@ -620,7 +628,7 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="16">
         <v>2.0</v>
       </c>
     </row>
@@ -634,7 +642,7 @@
       <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="16">
         <v>4.0</v>
       </c>
     </row>
@@ -648,8 +656,8 @@
       <c r="C11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="13">
-        <v>3.0</v>
+      <c r="D11" s="16">
+        <v>4.0</v>
       </c>
     </row>
     <row r="12" ht="27.0" customHeight="1">
@@ -662,8 +670,8 @@
       <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="13">
-        <v>3.0</v>
+      <c r="D12" s="16">
+        <v>4.0</v>
       </c>
     </row>
     <row r="13" ht="27.0" customHeight="1">
@@ -676,7 +684,7 @@
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="16">
         <v>2.0</v>
       </c>
     </row>
@@ -690,7 +698,7 @@
       <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="16">
         <v>4.0</v>
       </c>
     </row>
@@ -701,11 +709,11 @@
       <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="13">
-        <v>3.0</v>
+      <c r="D15" s="16">
+        <v>2.0</v>
       </c>
     </row>
     <row r="16" ht="27.0" customHeight="1">
@@ -715,11 +723,11 @@
       <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="13">
-        <v>5.0</v>
+      <c r="D16" s="16">
+        <v>6.0</v>
       </c>
     </row>
     <row r="17" ht="27.0" customHeight="1">
@@ -729,10 +737,10 @@
       <c r="B17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="16">
         <v>2.0</v>
       </c>
     </row>
@@ -743,10 +751,10 @@
       <c r="B18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="16">
         <v>2.0</v>
       </c>
     </row>
@@ -757,10 +765,10 @@
       <c r="B19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="16">
         <v>4.0</v>
       </c>
     </row>
@@ -771,21 +779,21 @@
       <c r="B20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="13">
-        <v>3.0</v>
+      <c r="D20" s="16">
+        <v>4.0</v>
       </c>
     </row>
     <row r="21" ht="27.0" customHeight="1">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="16">
@@ -793,41 +801,41 @@
       </c>
     </row>
     <row r="22" ht="27.0" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="16">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23" ht="27.0" customHeight="1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="17" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="16">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24" ht="42.0" customHeight="1">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="16">
@@ -835,27 +843,27 @@
       </c>
     </row>
     <row r="25" ht="27.0" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="16">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26" ht="27.0" customHeight="1">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="16">
@@ -863,13 +871,13 @@
       </c>
     </row>
     <row r="27" ht="27.0" customHeight="1">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="17" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="16">
@@ -877,7 +885,7 @@
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="18"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" ht="14.25" customHeight="1"/>
     <row r="30" ht="14.25" customHeight="1"/>
